--- a/data/trans_bre/P4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,22</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>-4,52%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 7,28</t>
+          <t>-4,06; 6,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 5,7</t>
+          <t>-7,2; 4,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 8,12</t>
+          <t>-3,2; 8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 6,17</t>
+          <t>-5,67; 6,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 7,09</t>
+          <t>-1,67; 10,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 26,48</t>
+          <t>-4,19; 7,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 20,65</t>
+          <t>-3,7; 7,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 32,5</t>
+          <t>-11,87; 24,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 23,55</t>
+          <t>-20,5; 17,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 17,12</t>
+          <t>-10,02; 33,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 23,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 49,46</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 17,65</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 17,22</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-3,47</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>22,79%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-14,99%</t>
+          <t>38,43%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-14,97%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-5,37%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,76</t>
+          <t>-1,4; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,36</t>
+          <t>-2,03; 9,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 11,36</t>
+          <t>0,05; 11,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 7,52</t>
+          <t>-4,94; 7,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 4,79</t>
+          <t>-2,83; 9,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 64,58</t>
+          <t>-11,81; 4,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 72,17</t>
+          <t>-11,75; 8,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 86,49</t>
+          <t>-9,47; 64,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 48,79</t>
+          <t>-10,48; 70,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-44,74; 25,92</t>
+          <t>0,01; 88,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 45,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,1; 62,46</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-43,0; 28,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; 36,28</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-18,21%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-41,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>-18,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-15,7%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 5,78</t>
+          <t>-17,02; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 2,99</t>
+          <t>-22,24; 5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 10,28</t>
+          <t>-13,33; 9,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 6,76</t>
+          <t>-17,06; 6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-9,62; 12,91</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-65,05; 58,05</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,5; 33,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 141,56</t>
+          <t>-66,23; 61,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 82,55</t>
+          <t>-76,88; 56,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-64,02; 129,04</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-68,69; 85,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-47,6; 150,01</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,66</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>1,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,04</t>
+          <t>-1,27; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 4,57</t>
+          <t>-3,6; 4,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,04</t>
+          <t>-0,01; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,06</t>
+          <t>-2,37; 5,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 6,18</t>
+          <t>-0,5; 7,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 29,18</t>
+          <t>-4,33; 6,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 21,34</t>
+          <t>-2,72; 6,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 41,17</t>
+          <t>-5,11; 28,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 23,89</t>
+          <t>-13,73; 22,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 16,91</t>
+          <t>-0,1; 39,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 25,28</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 43,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 15,93</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 18,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-4,52%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>9,35%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>17,23%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.609296727726317</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8150271281640642</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.250261406288035</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.047115859945463</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.66541515653564</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.218243935556135</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.93479663348573</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.05235105604290778</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.02590053112609358</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1163977563430241</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.03625888006266084</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1526109124186097</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.02759017952142093</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.04237535133752835</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 6,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 4,96</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 8,28</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 6,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 10,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 7,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 7,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 24,62</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-20,5; 17,47</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-10,02; 33,08</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-16,47; 23,81</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 49,46</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 17,65</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; 17,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.064215740624789</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.943378515173154</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.16470854299425</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.747073949544698</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.97713994469713</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.185647389210017</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-3.604978662825732</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.118670635399921</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2001556724611479</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06940860393191722</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1465722738534449</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.07788736608792084</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.08859357047509482</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.07309789393440867</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.900598426520439</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.899862915485539</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.793499438636204</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.721152071121772</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.804550558070549</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.155596788479802</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>7.393340547636217</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2462127691778621</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.2082566165548597</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3590886214030258</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.2668740343489856</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.4671233755681712</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.1764951969916939</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.1717733767139072</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,47</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,78%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>24,75%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>38,43%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>9,78%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>18,96%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-14,97%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-5,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,4; 8,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 9,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 11,42</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 7,62</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 9,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-11,81; 4,93</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 8,38</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 64,94</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; 70,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 88,54</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-20,88; 45,88</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-13,1; 62,46</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-43,0; 28,08</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-34,84; 36,28</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.66084975222247</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.743488908393197</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.263678832793293</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.127337856907024</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.865136086567561</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-3.467522273496723</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-1.215817804229419</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2277793036040279</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.2140937935349507</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4031094669466603</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.1085549149251553</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.2006648419481812</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.1497168888085197</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-0.04437405641220897</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-18,25%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-33,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-15,7%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>12,07%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.397374631867086</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.284778735693879</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.4526411787678478</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.183766236787609</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.487789620521133</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-11.81012878012938</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-10.84685107836812</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.09471990594106901</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1636356964799647</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.01487645859583989</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2111972615129606</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1243826476850278</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.4300351493616436</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.3371654188518864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,02; 5,87</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,24; 5,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,33; 9,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,06; 6,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 12,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-66,23; 61,16</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-76,88; 56,54</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-64,02; 129,04</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-68,69; 85,67</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-47,6; 150,01</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.736785559604584</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.00236692539794</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.69518395797054</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.636186375007068</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.31039686746159</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.932740366445451</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8.658827039672129</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.6493672099328649</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6819214715782933</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9096528014197898</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.4842407474311617</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.6388097200560633</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.2808295180132104</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.384648852909729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,25</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,91%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>19,74%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>5,41%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>19,18%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-3.048072962280388</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.401703648766636</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9895912463351864</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.057004360322955</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.523250966579218</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-0.1825413699281208</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.3554362617069488</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.07655004144085459</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>-0.1445752428608689</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.1039050192424595</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 5,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 4,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 7,67</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 5,29</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 7,92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 6,02</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 6,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 28,0</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-13,73; 22,01</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 39,38</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-9,18; 25,28</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 43,18</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; 15,93</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 18,08</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.02000231697259</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.45619551358828</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.59225148916379</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.99720601727223</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-9.787692768883078</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.6623090866953542</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7648438476518504</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5869934958265517</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.6791861931850234</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.4874685273318486</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.874380751789872</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.932831113873066</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.588386887751879</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.592018534448163</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>12.28698176148656</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.6115604134226116</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.5934762306162843</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.373433940494055</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>0.8345249443268464</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1.473388321078293</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.351571273488124</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7212756104783058</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.651220735024888</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.567155064284079</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.846393768036718</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.658757044097652</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>2.130676560064582</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1013845168687286</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.02971500581661116</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2200340504980823</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.06704836270922548</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.182644160527508</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.01676151583690453</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.05163478206525728</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.267438500491097</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.879831424409239</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.653540497729696</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.166938886048142</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.7586473062716382</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.333759678013744</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-2.502042409178966</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.05113249819560238</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1440328931685183</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.01945230180738123</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.08548697396003639</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.02972313262247468</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.1034591590325672</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.05779020803806734</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.908372545581049</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.061520451713064</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.036777702422055</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.529976216597523</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.837902108905169</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>6.021584908100738</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>6.992765126795002</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2800198433584948</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.2284283912740591</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4078129714561285</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2685173213384536</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.4224285697634803</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.1593117422394053</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.1844382855681158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
